--- a/Linux/程序员的自我修养/ELF.xlsx
+++ b/Linux/程序员的自我修养/ELF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12300"/>
+    <workbookView windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>.text</t>
   </si>
   <si>
+    <t>.rela.text</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>.shstrtab</t>
-  </si>
-  <si>
-    <t>.rela.text</t>
   </si>
 </sst>
 </file>
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,6 +79,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,20 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -115,6 +124,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -123,23 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +164,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,30 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -192,30 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,25 +230,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +344,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +491,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,22 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,30 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,157 +568,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,37 +742,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="L6:AP45"/>
+  <dimension ref="L6:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AH48" sqref="AH48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="20" customHeight="true"/>
@@ -1178,98 +1169,98 @@
       <c r="AI9" s="3">
         <v>0</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
     </row>
     <row r="10" customHeight="true" spans="20:35">
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>62</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
         <v>1</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="14"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="13"/>
     </row>
     <row r="11" customHeight="true" spans="20:35">
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4">
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3">
         <v>1104</v>
       </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
     </row>
     <row r="12" customHeight="true" spans="14:35">
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3">
         <v>64</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3">
         <v>64</v>
       </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4">
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3">
         <v>13</v>
       </c>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3">
         <v>12</v>
       </c>
-      <c r="AI12" s="4"/>
+      <c r="AI12" s="3"/>
     </row>
     <row r="13" customHeight="true" spans="20:35">
       <c r="T13" s="2"/>
@@ -1452,28 +1443,28 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" customHeight="true" spans="20:39">
-      <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="8"/>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="7"/>
       <c r="AJ23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1482,108 +1473,108 @@
       <c r="AM23" s="2"/>
     </row>
     <row r="24" customHeight="true" spans="20:39">
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="8"/>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="7"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
     </row>
     <row r="25" customHeight="true" spans="20:39">
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="8"/>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="7"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
     </row>
     <row r="26" customHeight="true" spans="20:39">
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="8"/>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="7"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
     </row>
     <row r="27" customHeight="true" spans="20:39">
-      <c r="T27" s="5">
+      <c r="T27" s="4">
         <v>32</v>
       </c>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="5">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="4">
         <v>1</v>
       </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="5">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="4">
         <v>6</v>
       </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="8"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="7"/>
       <c r="AJ27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1592,324 +1583,324 @@
       <c r="AM27" s="2"/>
     </row>
     <row r="28" customHeight="true" spans="20:39">
-      <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="5">
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="4">
         <v>64</v>
       </c>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="8"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="7"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
     </row>
     <row r="29" customHeight="true" spans="20:39">
-      <c r="T29" s="5">
+      <c r="T29" s="4">
         <v>89</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="8"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="7"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
     </row>
     <row r="30" customHeight="true" spans="20:39">
-      <c r="T30" s="5">
+      <c r="T30" s="4">
         <v>1</v>
       </c>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="8"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="7"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
     </row>
-    <row r="31" customHeight="true" spans="20:35">
-      <c r="T31" s="2" t="s">
+    <row r="31" customHeight="true" spans="20:39">
+      <c r="T31" s="4">
+        <v>37</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="4">
+        <v>64</v>
+      </c>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
     </row>
     <row r="32" customHeight="true" spans="20:39">
-      <c r="T32" s="6">
-        <v>17</v>
-      </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="4">
+        <v>832</v>
+      </c>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
     </row>
     <row r="33" customHeight="true" spans="20:39">
-      <c r="T33" s="6">
-        <v>0</v>
-      </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="6">
-        <v>1000</v>
-      </c>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="10"/>
+      <c r="T33" s="4">
+        <v>120</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="7"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
     </row>
     <row r="34" customHeight="true" spans="20:39">
-      <c r="T34" s="6">
-        <v>97</v>
-      </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="10"/>
+      <c r="T34" s="4">
+        <v>8</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="7"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
     </row>
-    <row r="35" customHeight="true" spans="20:39">
-      <c r="T35" s="6">
+    <row r="35" customHeight="true" spans="20:35">
+      <c r="T35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+    </row>
+    <row r="36" customHeight="true" spans="20:39">
+      <c r="T36" s="5">
+        <v>17</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+    </row>
+    <row r="37" customHeight="true" spans="20:39">
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+    </row>
+    <row r="38" customHeight="true" spans="20:39">
+      <c r="T38" s="5">
+        <v>97</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+    </row>
+    <row r="39" customHeight="true" spans="20:39">
+      <c r="T39" s="5">
         <v>1</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-    </row>
-    <row r="42" customHeight="true" spans="20:39">
-      <c r="T42" s="5">
-        <v>37</v>
-      </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="5">
-        <v>64</v>
-      </c>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-    </row>
-    <row r="43" customHeight="true" spans="20:39">
-      <c r="T43" s="5">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="5">
-        <v>832</v>
-      </c>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-    </row>
-    <row r="44" customHeight="true" spans="20:39">
-      <c r="T44" s="5">
-        <v>120</v>
-      </c>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="5">
-        <v>10</v>
-      </c>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-    </row>
-    <row r="45" customHeight="true" spans="20:39">
-      <c r="T45" s="5">
-        <v>8</v>
-      </c>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="5">
-        <v>24</v>
-      </c>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -1948,32 +1939,32 @@
     <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="T30:AA30"/>
     <mergeCell ref="AB30:AI30"/>
-    <mergeCell ref="T31:AI31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AI31"/>
+    <mergeCell ref="T32:AA32"/>
     <mergeCell ref="AB32:AI32"/>
     <mergeCell ref="T33:AA33"/>
-    <mergeCell ref="AB33:AI33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
     <mergeCell ref="T34:AA34"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="T35:AA35"/>
-    <mergeCell ref="AB35:AI35"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="AB42:AI42"/>
-    <mergeCell ref="T43:AA43"/>
-    <mergeCell ref="AB43:AI43"/>
-    <mergeCell ref="T44:AA44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="T45:AA45"/>
-    <mergeCell ref="AB45:AI45"/>
-    <mergeCell ref="AJ32:AM35"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="T35:AI35"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="T37:AA37"/>
+    <mergeCell ref="AB37:AI37"/>
+    <mergeCell ref="T38:AA38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="T39:AA39"/>
+    <mergeCell ref="AB39:AI39"/>
     <mergeCell ref="AJ23:AM26"/>
     <mergeCell ref="AJ27:AM30"/>
     <mergeCell ref="T13:AI22"/>
-    <mergeCell ref="AJ42:AM45"/>
+    <mergeCell ref="AJ31:AM34"/>
+    <mergeCell ref="AJ36:AM39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
